--- a/Data/tmall_sum.xlsx
+++ b/Data/tmall_sum.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,6 +71,1180 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-HK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33692.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74609.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52032.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27823.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25160.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5491.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18309.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33217.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23708.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11462.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9745.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2568.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18309.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33217.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23708.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11462.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9745.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2568.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,15 +1510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -362,8 +1532,20 @@
         <f>SUM(B1:C1)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1">
+        <f>B1/6</f>
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f>C1/6</f>
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <f>D1/6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -377,8 +1559,20 @@
         <f t="shared" ref="D2:D7" si="0">SUM(B2:C2)</f>
         <v>52001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f t="shared" ref="F2:H8" si="1">B2/6</f>
+        <v>5615.333333333333</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="2">C2/6</f>
+        <v>3051.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="1"/>
+        <v>8666.8333333333339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -392,8 +1586,20 @@
         <f t="shared" si="0"/>
         <v>107826</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>12434.833333333334</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>5536.166666666667</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>17971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -407,8 +1613,20 @@
         <f t="shared" si="0"/>
         <v>75740</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8672</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3951.3333333333335</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>12623.333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -422,8 +1640,20 @@
         <f t="shared" si="0"/>
         <v>39285</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4637.166666666667</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1910.3333333333333</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6547.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -437,8 +1667,20 @@
         <f t="shared" si="0"/>
         <v>34905</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4193.333333333333</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1624.1666666666667</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5817.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -452,8 +1694,20 @@
         <f t="shared" si="0"/>
         <v>8059</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>915.16666666666663</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1343.1666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>SUM(B1:B7)</f>
         <v>218825</v>
@@ -462,8 +1716,504 @@
         <f>SUM(C1:C7)</f>
         <v>99015</v>
       </c>
+      <c r="D8">
+        <f>B8+C8</f>
+        <v>317840</v>
+      </c>
+      <c r="F8">
+        <f>B8/6</f>
+        <v>36470.833333333336</v>
+      </c>
+      <c r="G8">
+        <f>C8/6</f>
+        <v>16502.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>52973.333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>317840</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <f>C13/B13*100</f>
+        <v>5.6632267807701989E-3</v>
+      </c>
+      <c r="E13">
+        <f>D13/0.8</f>
+        <v>7.0790334759627486E-3</v>
+      </c>
+      <c r="F13">
+        <f>E13*2</f>
+        <v>1.4158066951925497E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G26" si="3">F13*4</f>
+        <v>5.6632267807701989E-2</v>
+      </c>
+      <c r="H13">
+        <f>G13*16/10</f>
+        <v>9.0611628492323182E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>317840</v>
+      </c>
+      <c r="C14">
+        <v>33692</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D27" si="4">C14/B14*100</f>
+        <v>10.600302038761642</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E27" si="5">D14/0.8</f>
+        <v>13.250377548452052</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F27" si="6">E14*2</f>
+        <v>26.500755096904104</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>106.00302038761642</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H27" si="7">G14*16/10</f>
+        <v>169.60483262018627</v>
+      </c>
+      <c r="J14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>317840</v>
+      </c>
+      <c r="C15">
+        <v>74609</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>23.47376038258243</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>29.342200478228037</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>58.684400956456074</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>234.73760382582429</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>375.58016612131888</v>
+      </c>
+      <c r="J15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>317840</v>
+      </c>
+      <c r="C16">
+        <v>52032</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>16.370500880946388</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>20.463126101182983</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>40.926252202365966</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>163.70500880946386</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>261.9280140951422</v>
+      </c>
+      <c r="J16">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>317840</v>
+      </c>
+      <c r="C17">
+        <v>27823</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>8.7537754845205136</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>10.942219355650641</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>21.884438711301282</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>87.537754845205129</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>140.06040775232822</v>
+      </c>
+      <c r="J17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>317840</v>
+      </c>
+      <c r="C18">
+        <v>25160</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>7.9159325446765667</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>9.8949156808457079</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>19.789831361691416</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>79.159325446765664</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>126.65492071482507</v>
+      </c>
+      <c r="J18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>317840</v>
+      </c>
+      <c r="C19">
+        <v>5491</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>1.7275987918449536</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>2.1594984898061917</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>4.3189969796123835</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>17.275987918449534</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>27.641580669519254</v>
+      </c>
+      <c r="J19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>317840</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>317840</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>1.887742260256733E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>2.3596778253209163E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>4.7193556506418327E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1.8877422602567331E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>3.0203876164107728E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>317840</v>
+      </c>
+      <c r="C22">
+        <v>18309</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>5.7604455071734204</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>7.2005568839667751</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>14.40111376793355</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>57.604455071734201</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>92.167128114774727</v>
+      </c>
+      <c r="J22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>317840</v>
+      </c>
+      <c r="C23">
+        <v>33217</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>10.450855776491316</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>13.063569720614145</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>26.127139441228291</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>104.50855776491316</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>167.21369242386106</v>
+      </c>
+      <c r="J23">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>317840</v>
+      </c>
+      <c r="C24">
+        <v>23708</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>7.4590989176944369</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>9.3238736471180452</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>18.64774729423609</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>74.590989176944362</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>119.34558268311098</v>
+      </c>
+      <c r="J24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>317840</v>
+      </c>
+      <c r="C25">
+        <v>11462</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>3.6062169645104456</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4.5077712056380568</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>9.0155424112761136</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>36.062169645104454</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>57.69947143216713</v>
+      </c>
+      <c r="J25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>317840</v>
+      </c>
+      <c r="C26">
+        <v>9745</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>3.0660080543669772</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>3.8325100679587214</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>7.6650201359174428</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>30.660080543669771</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>49.056128869871635</v>
+      </c>
+      <c r="J26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>317840</v>
+      </c>
+      <c r="C27">
+        <v>2568</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0.8079536873898816</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>1.0099421092373519</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>2.0198842184747039</v>
+      </c>
+      <c r="G27">
+        <f>F27*4</f>
+        <v>8.0795368738988156</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>12.927258998238106</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="8">SUM(D13:D27)</f>
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>124.99999999999999</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F13:F27)</f>
+        <v>249.99999999999997</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G13:G27)</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H13:H27)</f>
+        <v>1600</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="I28:J28" si="9">SUM(J13:J27)</f>
+        <v>1600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>